--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/09DE7F83-1F57-4B6B-951D-2061F3C5180E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/local/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/1633D3E5-16EF-4BA2-8E49-750A0F60488A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0659DEEE-4367-764C-805C-F320316CAE73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4F38E-CFF6-5143-9157-607C9EF14A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="14260" windowWidth="13200" windowHeight="10600" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>study</t>
   </si>
@@ -159,12 +159,6 @@
     <t>sp064</t>
   </si>
   <si>
-    <t>mandy</t>
-  </si>
-  <si>
-    <t>sarah</t>
-  </si>
-  <si>
     <t>BxW, BxP, WxP</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>me99d</t>
   </si>
   <si>
-    <t>tara</t>
-  </si>
-  <si>
     <t>leaf</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>sp052</t>
   </si>
   <si>
-    <t>peng</t>
-  </si>
-  <si>
     <t>reverse</t>
   </si>
   <si>
@@ -213,12 +201,6 @@
     <t>bmr</t>
   </si>
   <si>
-    <t>biomap reseq</t>
-  </si>
-  <si>
-    <t>biomap rnaseq</t>
-  </si>
-  <si>
     <t>5 tissues</t>
   </si>
   <si>
@@ -226,6 +208,18 @@
   </si>
   <si>
     <t>jgi</t>
+  </si>
+  <si>
+    <t>zhou2018</t>
+  </si>
+  <si>
+    <t>anderson</t>
+  </si>
+  <si>
+    <t>enders</t>
+  </si>
+  <si>
+    <t>waters</t>
   </si>
 </sst>
 </file>
@@ -581,7 +575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +583,7 @@
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -617,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -646,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -669,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -692,7 +686,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -715,7 +709,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -735,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -758,10 +752,10 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -787,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -798,28 +792,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -833,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -856,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -873,7 +867,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -896,7 +890,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -916,10 +910,10 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -928,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -939,28 +933,28 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -968,16 +962,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -994,16 +988,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
@@ -1018,7 +1012,7 @@
         <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
         <v>27</v>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/1633D3E5-16EF-4BA2-8E49-750A0F60488A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/87228FCD-5B1D-49DB-AF24-EDF4390A969F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4F38E-CFF6-5143-9157-607C9EF14A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E1422-0F1B-AA40-8D44-73A9E9162C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="14260" windowWidth="13200" windowHeight="10600" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="28440" yWindow="2540" windowWidth="22080" windowHeight="21160" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="320">
   <si>
     <t>study</t>
   </si>
@@ -48,9 +49,6 @@
     <t>stranded</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -132,18 +130,9 @@
     <t>sp035</t>
   </si>
   <si>
-    <t>seqcap</t>
-  </si>
-  <si>
     <t>sp054</t>
   </si>
   <si>
-    <t>yid2</t>
-  </si>
-  <si>
-    <t>reseq</t>
-  </si>
-  <si>
     <t>Blanco, W22, Bravo</t>
   </si>
   <si>
@@ -165,18 +154,12 @@
     <t>endosperm</t>
   </si>
   <si>
-    <t>me99d</t>
-  </si>
-  <si>
     <t>leaf</t>
   </si>
   <si>
     <t>B, M</t>
   </si>
   <si>
-    <t>candy</t>
-  </si>
-  <si>
     <t>interleaved</t>
   </si>
   <si>
@@ -219,14 +202,797 @@
     <t>enders</t>
   </si>
   <si>
-    <t>waters</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dnaseq</t>
+  </si>
+  <si>
+    <t>libtype</t>
+  </si>
+  <si>
+    <t>waters2017</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>li2019</t>
+  </si>
+  <si>
+    <t>accession</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t>B,M and RILs</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>early and late leaf</t>
+  </si>
+  <si>
+    <t>62 inbreds</t>
+  </si>
+  <si>
+    <t>4 reciprocal hybrids</t>
+  </si>
+  <si>
+    <t>368 inbreds</t>
+  </si>
+  <si>
+    <t>kernel_15DAP</t>
+  </si>
+  <si>
+    <t>503 inbreds</t>
+  </si>
+  <si>
+    <t>seedling</t>
+  </si>
+  <si>
+    <t>gamete 7</t>
+  </si>
+  <si>
+    <t>ligule</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>380 lines</t>
+  </si>
+  <si>
+    <t>93 tissues</t>
+  </si>
+  <si>
+    <t>27 inbreds</t>
+  </si>
+  <si>
+    <t>B, M anf F1</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>255 lines</t>
+  </si>
+  <si>
+    <t>7 tissues</t>
+  </si>
+  <si>
+    <t>7 inbreds + 6 hybrids</t>
+  </si>
+  <si>
+    <t>3 root stages</t>
+  </si>
+  <si>
+    <t>W,T and RILs</t>
+  </si>
+  <si>
+    <t>seedling_v2</t>
+  </si>
+  <si>
+    <t>48 inbreds</t>
+  </si>
+  <si>
+    <t>diverse collections</t>
+  </si>
+  <si>
+    <t>4 tissues</t>
+  </si>
+  <si>
+    <t>453 inbreds</t>
+  </si>
+  <si>
+    <t>whole seedlings</t>
+  </si>
+  <si>
+    <t>170 inbreds + 96 hybrids</t>
+  </si>
+  <si>
+    <t>35 inbreds + 96 hybrids</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>meristem</t>
+  </si>
+  <si>
+    <t>ear tip</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>pericarp</t>
+  </si>
+  <si>
+    <t>tassel</t>
+  </si>
+  <si>
+    <t>A619</t>
+  </si>
+  <si>
+    <t>ear primordia</t>
+  </si>
+  <si>
+    <t>leaf primordia</t>
+  </si>
+  <si>
+    <t>aleurone+endosperm</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>PRJNA79627</t>
+  </si>
+  <si>
+    <t>PRJNA80041</t>
+  </si>
+  <si>
+    <t>PRJNA179160</t>
+  </si>
+  <si>
+    <t>PRJNA179196 PRJNA253977</t>
+  </si>
+  <si>
+    <t>PRJNA173886</t>
+  </si>
+  <si>
+    <t>PRJNA223677</t>
+  </si>
+  <si>
+    <t>PRJNA208608</t>
+  </si>
+  <si>
+    <t>PRJNA189400</t>
+  </si>
+  <si>
+    <t>PRJNA235264</t>
+  </si>
+  <si>
+    <t>PRJNA80075</t>
+  </si>
+  <si>
+    <t>PRJNA260793</t>
+  </si>
+  <si>
+    <t>PRJNA237837</t>
+  </si>
+  <si>
+    <t>PRJNA277023</t>
+  </si>
+  <si>
+    <t>PRJNA171684 SRP010680</t>
+  </si>
+  <si>
+    <t>PRJNA217053</t>
+  </si>
+  <si>
+    <t>SRA050451 SRA050790</t>
+  </si>
+  <si>
+    <t>PRJNA284670</t>
+  </si>
+  <si>
+    <t>PRJNA383416</t>
+  </si>
+  <si>
+    <t>PRJNA391230 PRJNA392500</t>
+  </si>
+  <si>
+    <t>PRJNA255192</t>
+  </si>
+  <si>
+    <t>PRJNA304663</t>
+  </si>
+  <si>
+    <t>PRJNA358298</t>
+  </si>
+  <si>
+    <t>PRJNA437324</t>
+  </si>
+  <si>
+    <t>PRJNA168086</t>
+  </si>
+  <si>
+    <t>PRJNA494874</t>
+  </si>
+  <si>
+    <t>PRJNA485828</t>
+  </si>
+  <si>
+    <t>PRJNA289143</t>
+  </si>
+  <si>
+    <t>PRJNA483200</t>
+  </si>
+  <si>
+    <t>PRJNA475209</t>
+  </si>
+  <si>
+    <t>PRJNA471036</t>
+  </si>
+  <si>
+    <t>PRJNA262503</t>
+  </si>
+  <si>
+    <t>PRJNA449867</t>
+  </si>
+  <si>
+    <t>PRJNA375801</t>
+  </si>
+  <si>
+    <t>PRJNA262781</t>
+  </si>
+  <si>
+    <t>PRJNA260183</t>
+  </si>
+  <si>
+    <t>li2010</t>
+  </si>
+  <si>
+    <t>davidson2011</t>
+  </si>
+  <si>
+    <t>li2013</t>
+  </si>
+  <si>
+    <t>liu2013 yu2015</t>
+  </si>
+  <si>
+    <t>eitchen2013</t>
+  </si>
+  <si>
+    <t>waters2013</t>
+  </si>
+  <si>
+    <t>fu2013</t>
+  </si>
+  <si>
+    <t>hirsch2014</t>
+  </si>
+  <si>
+    <t>li2014</t>
+  </si>
+  <si>
+    <t>chettoor2014</t>
+  </si>
+  <si>
+    <t>johnston2014</t>
+  </si>
+  <si>
+    <t>chen2014</t>
+  </si>
+  <si>
+    <t>leiboff2015</t>
+  </si>
+  <si>
+    <t>stelpflug2016</t>
+  </si>
+  <si>
+    <t>walley2016</t>
+  </si>
+  <si>
+    <t>lin2017</t>
+  </si>
+  <si>
+    <t>marcon2017</t>
+  </si>
+  <si>
+    <t>kremling2018</t>
+  </si>
+  <si>
+    <t>baldauf2018</t>
+  </si>
+  <si>
+    <t>wang2018</t>
+  </si>
+  <si>
+    <t>schaefer2018</t>
+  </si>
+  <si>
+    <t>huang2018</t>
+  </si>
+  <si>
+    <t>sun2018</t>
+  </si>
+  <si>
+    <t>mazaheri2019</t>
+  </si>
+  <si>
+    <t>kaeppler2018</t>
+  </si>
+  <si>
+    <t>bolduc2012</t>
+  </si>
+  <si>
+    <t>wittmeyer2018</t>
+  </si>
+  <si>
+    <t>liu2018</t>
+  </si>
+  <si>
+    <t>zhan2018</t>
+  </si>
+  <si>
+    <t>li2015</t>
+  </si>
+  <si>
+    <t>li2018</t>
+  </si>
+  <si>
+    <t>li2017</t>
+  </si>
+  <si>
+    <t>pautler2015</t>
+  </si>
+  <si>
+    <t>leaf 6 zones</t>
+  </si>
+  <si>
+    <t>reproductive 12</t>
+  </si>
+  <si>
+    <t>eQTL</t>
+  </si>
+  <si>
+    <t>leaf time-series 13t + 9t</t>
+  </si>
+  <si>
+    <t>diverse inbreds</t>
+  </si>
+  <si>
+    <t>imprinting</t>
+  </si>
+  <si>
+    <t>kernel eQTL</t>
+  </si>
+  <si>
+    <t>pan-transcriptome</t>
+  </si>
+  <si>
+    <t>endosperm 7t</t>
+  </si>
+  <si>
+    <t>7 gamete</t>
+  </si>
+  <si>
+    <t>embryo+endosperm</t>
+  </si>
+  <si>
+    <t>atlas</t>
+  </si>
+  <si>
+    <t>proteome</t>
+  </si>
+  <si>
+    <t>eRD-GWAS</t>
+  </si>
+  <si>
+    <t>stress cis-trans</t>
+  </si>
+  <si>
+    <t>drought stress</t>
+  </si>
+  <si>
+    <t>dysregulation</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>maize-teosinte RIL</t>
+  </si>
+  <si>
+    <t>root ionics</t>
+  </si>
+  <si>
+    <t>tissue GRN</t>
+  </si>
+  <si>
+    <t>mo17 genome</t>
+  </si>
+  <si>
+    <t>widiv biomass</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>B73&amp;Mo17 atlas</t>
+  </si>
+  <si>
+    <t>biomAP</t>
+  </si>
+  <si>
+    <t>KN1</t>
+  </si>
+  <si>
+    <t>cle7</t>
+  </si>
+  <si>
+    <t>rbm48</t>
+  </si>
+  <si>
+    <t>ZmMADS47</t>
+  </si>
+  <si>
+    <t>ufo1</t>
+  </si>
+  <si>
+    <t>rel2</t>
+  </si>
+  <si>
+    <t>opaque2</t>
+  </si>
+  <si>
+    <t>ZmbZIP22</t>
+  </si>
+  <si>
+    <t>floury3</t>
+  </si>
+  <si>
+    <t>fea4</t>
+  </si>
+  <si>
+    <t>liguleless1</t>
+  </si>
+  <si>
+    <t>nkd</t>
+  </si>
+  <si>
+    <t>rn10a</t>
+  </si>
+  <si>
+    <t>rn11a</t>
+  </si>
+  <si>
+    <t>rn13a</t>
+  </si>
+  <si>
+    <t>rn13b</t>
+  </si>
+  <si>
+    <t>rn13c</t>
+  </si>
+  <si>
+    <t>rn13d</t>
+  </si>
+  <si>
+    <t>rn13e</t>
+  </si>
+  <si>
+    <t>rn14a</t>
+  </si>
+  <si>
+    <t>rn14b</t>
+  </si>
+  <si>
+    <t>rn14c</t>
+  </si>
+  <si>
+    <t>rn14d</t>
+  </si>
+  <si>
+    <t>rn14e</t>
+  </si>
+  <si>
+    <t>rn15a</t>
+  </si>
+  <si>
+    <t>rn16b</t>
+  </si>
+  <si>
+    <t>rn16c</t>
+  </si>
+  <si>
+    <t>rn17a</t>
+  </si>
+  <si>
+    <t>rn17b</t>
+  </si>
+  <si>
+    <t>rn17c</t>
+  </si>
+  <si>
+    <t>rn18a</t>
+  </si>
+  <si>
+    <t>rn18b</t>
+  </si>
+  <si>
+    <t>rn18c</t>
+  </si>
+  <si>
+    <t>rn18d</t>
+  </si>
+  <si>
+    <t>rn18e</t>
+  </si>
+  <si>
+    <t>rn18f</t>
+  </si>
+  <si>
+    <t>rn19a</t>
+  </si>
+  <si>
+    <t>rn99a</t>
+  </si>
+  <si>
+    <t>rn99c</t>
+  </si>
+  <si>
+    <t>rn99d</t>
+  </si>
+  <si>
+    <t>rn99f</t>
+  </si>
+  <si>
+    <t>rm01</t>
+  </si>
+  <si>
+    <t>rm02</t>
+  </si>
+  <si>
+    <t>rm03</t>
+  </si>
+  <si>
+    <t>rm04</t>
+  </si>
+  <si>
+    <t>rm05</t>
+  </si>
+  <si>
+    <t>rm06</t>
+  </si>
+  <si>
+    <t>rm07</t>
+  </si>
+  <si>
+    <t>rm08</t>
+  </si>
+  <si>
+    <t>rm09</t>
+  </si>
+  <si>
+    <t>rm10</t>
+  </si>
+  <si>
+    <t>rm11</t>
+  </si>
+  <si>
+    <t>rm12</t>
+  </si>
+  <si>
+    <t>rm13</t>
+  </si>
+  <si>
+    <t>hapmap2</t>
+  </si>
+  <si>
+    <t>hapmap3</t>
+  </si>
+  <si>
+    <t>german 31</t>
+  </si>
+  <si>
+    <t>282 set</t>
+  </si>
+  <si>
+    <t>cs845</t>
+  </si>
+  <si>
+    <t>60 inbred parents</t>
+  </si>
+  <si>
+    <t>gontarek2016</t>
+  </si>
+  <si>
+    <t>scanlon2014</t>
+  </si>
+  <si>
+    <t>Cannabis sativa</t>
+  </si>
+  <si>
+    <t>PRJNA347566</t>
+  </si>
+  <si>
+    <t>phylos2016</t>
+  </si>
+  <si>
+    <t>hirsch2018</t>
+  </si>
+  <si>
+    <t>PRJNA260788</t>
+  </si>
+  <si>
+    <t>german2014</t>
+  </si>
+  <si>
+    <t>PRJNA389800</t>
+  </si>
+  <si>
+    <t>cornell2017</t>
+  </si>
+  <si>
+    <t>SRP011907</t>
+  </si>
+  <si>
+    <t>PRJNA399729</t>
+  </si>
+  <si>
+    <t>cshl2012</t>
+  </si>
+  <si>
+    <t>springer2013</t>
+  </si>
+  <si>
+    <t>springer2014</t>
+  </si>
+  <si>
+    <t>springer2015</t>
+  </si>
+  <si>
+    <t>springer2016</t>
+  </si>
+  <si>
+    <t>springer2017</t>
+  </si>
+  <si>
+    <t>springer2018</t>
+  </si>
+  <si>
+    <t>bs13a</t>
+  </si>
+  <si>
+    <t>bs14a</t>
+  </si>
+  <si>
+    <t>bs15a</t>
+  </si>
+  <si>
+    <t>bs15b</t>
+  </si>
+  <si>
+    <t>bs16a</t>
+  </si>
+  <si>
+    <t>bs17a</t>
+  </si>
+  <si>
+    <t>bs17b</t>
+  </si>
+  <si>
+    <t>bs17c</t>
+  </si>
+  <si>
+    <t>bs18a</t>
+  </si>
+  <si>
+    <t>dn15a</t>
+  </si>
+  <si>
+    <t>dn12a</t>
+  </si>
+  <si>
+    <t>dn14a</t>
+  </si>
+  <si>
+    <t>dn16a</t>
+  </si>
+  <si>
+    <t>dn17a</t>
+  </si>
+  <si>
+    <t>dn17b</t>
+  </si>
+  <si>
+    <t>dn18a</t>
+  </si>
+  <si>
+    <t>rn18g</t>
+  </si>
+  <si>
+    <t>rn12a</t>
+  </si>
+  <si>
+    <t>PRJNA168086 PRJNA494874 PRJNA485828 PRJNA289143 PRJNA483200 PRJNA475209 PRJNA471036 PRJNA262503 PRJNA449867 PRJNA375801 PRJNA262781 PRJNA260793 PRJNA260183</t>
+  </si>
+  <si>
+    <t>TF mutants</t>
+  </si>
+  <si>
+    <t>rn14f</t>
+  </si>
+  <si>
+    <t>umn2014</t>
+  </si>
+  <si>
+    <t>PRJNA244661</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>B73, B37, Oh43</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>ase</t>
+  </si>
+  <si>
+    <t>hisat2</t>
+  </si>
+  <si>
+    <t>bismark</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>runR</t>
+  </si>
+  <si>
+    <t>runB</t>
+  </si>
+  <si>
+    <t>runD</t>
+  </si>
+  <si>
+    <t>meta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,13 +1000,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,13 +1052,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -571,451 +1414,2237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="5.5" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S1" t="s">
+        <v>319</v>
+      </c>
+      <c r="T1" t="s">
         <v>24</v>
       </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>317</v>
+      </c>
+      <c r="W1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>314</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>314</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>314</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>314</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>314</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>314</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>314</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
+        <v>314</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N11">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s">
+        <v>315</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>315</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>315</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14">
+        <v>845</v>
+      </c>
+      <c r="P14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N15">
+        <v>277</v>
+      </c>
+      <c r="P15" t="s">
+        <v>315</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16">
+        <v>598</v>
+      </c>
+      <c r="P16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>315</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>313</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="P19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>313</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21">
+        <v>105</v>
+      </c>
+      <c r="P21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22">
+        <v>22</v>
+      </c>
+      <c r="P22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="P24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25">
+        <v>368</v>
+      </c>
+      <c r="P25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26">
+        <v>503</v>
+      </c>
+      <c r="P26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="P28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>308</v>
+      </c>
+      <c r="L31" t="s">
+        <v>309</v>
+      </c>
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>313</v>
+      </c>
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32">
+        <v>380</v>
+      </c>
+      <c r="P32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35">
+        <v>133</v>
+      </c>
+      <c r="P35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>15</v>
+      </c>
+      <c r="P36" t="s">
+        <v>313</v>
+      </c>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>195</v>
+      </c>
+      <c r="L37" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37">
+        <v>8</v>
+      </c>
+      <c r="P37" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" t="s">
+        <v>88</v>
+      </c>
+      <c r="N38">
+        <v>1781</v>
+      </c>
+      <c r="P38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39">
+        <v>46</v>
+      </c>
+      <c r="P39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+      <c r="L40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40">
+        <v>623</v>
+      </c>
+      <c r="P40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>199</v>
+      </c>
+      <c r="L41" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41">
+        <v>48</v>
+      </c>
+      <c r="P41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N42">
+        <v>1136</v>
+      </c>
+      <c r="P42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
+        <v>204</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="U44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>202</v>
+      </c>
+      <c r="L45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45">
+        <v>453</v>
+      </c>
+      <c r="P45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" t="s">
+        <v>98</v>
+      </c>
+      <c r="M46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46">
+        <v>460</v>
+      </c>
+      <c r="P46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47">
+        <v>465</v>
+      </c>
+      <c r="P47" t="s">
+        <v>313</v>
+      </c>
+      <c r="U47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" t="s">
+        <v>313</v>
+      </c>
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>185</v>
+      </c>
+      <c r="L49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="P49" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="U49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="rnaseq">
+      <formula>NOT(ISERROR(SEARCH("rnaseq",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="dnaseq">
+      <formula>NOT(ISERROR(SEARCH("dnaseq",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="bsseq">
+      <formula>NOT(ISERROR(SEARCH("bsseq",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="local">
+      <formula>NOT(ISERROR(SEARCH("local",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84903EEC-E5C6-F645-9D34-7660EA8B36C9}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>213</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>215</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>217</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>150</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/87228FCD-5B1D-49DB-AF24-EDF4390A969F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/BF651E6B-1D39-415F-929B-4A3A117FAD8D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E1422-0F1B-AA40-8D44-73A9E9162C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43070765-F730-D34E-A06B-EF19B2D6389C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="2540" windowWidth="22080" windowHeight="21160" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="5380" yWindow="5360" windowWidth="22080" windowHeight="21160" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="320">
   <si>
     <t>study</t>
   </si>
@@ -1008,18 +1008,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1035,7 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,12 +1052,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1414,11 +1448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,16 +1488,16 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I1" t="s">
@@ -1549,6 +1583,9 @@
       <c r="U2" t="s">
         <v>26</v>
       </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1584,6 +1621,9 @@
       <c r="U3" t="s">
         <v>26</v>
       </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1654,6 +1694,9 @@
       <c r="U5" t="s">
         <v>26</v>
       </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1718,6 +1761,9 @@
       <c r="U7" t="s">
         <v>26</v>
       </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1782,6 +1828,9 @@
       <c r="U9" t="s">
         <v>26</v>
       </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1814,6 +1863,9 @@
       <c r="U10" t="s">
         <v>26</v>
       </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2010,7 +2062,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -2051,7 +2103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -2089,7 +2141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -2123,8 +2175,11 @@
       <c r="P19" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>302</v>
       </c>
@@ -2153,7 +2208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -2187,8 +2242,11 @@
       <c r="P21" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -2222,8 +2280,14 @@
       <c r="P22" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="P23" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -2292,8 +2359,11 @@
       <c r="P24" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>224</v>
       </c>
@@ -2327,8 +2397,11 @@
       <c r="P25" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -2362,8 +2435,11 @@
       <c r="P26" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -2397,8 +2473,11 @@
       <c r="P27" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>227</v>
       </c>
@@ -2432,625 +2511,665 @@
       <c r="P28" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
         <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N29">
+        <v>53</v>
       </c>
       <c r="P29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>229</v>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N30">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>305</v>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>230</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>307</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N31">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="P31" t="s">
         <v>313</v>
       </c>
-      <c r="R31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
         <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N32">
-        <v>380</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s">
         <v>313</v>
       </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s">
         <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="N33">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="P33" t="s">
         <v>313</v>
       </c>
+      <c r="U33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N34">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="P34" t="s">
         <v>313</v>
       </c>
+      <c r="U34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" t="s">
-        <v>127</v>
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="P35" t="s">
         <v>313</v>
       </c>
+      <c r="R35" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
+        <v>111</v>
+      </c>
+      <c r="H36" t="s">
+        <v>128</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="N36">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P36" t="s">
         <v>313</v>
       </c>
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
       <c r="R36" t="s">
         <v>26</v>
       </c>
       <c r="U36" t="s">
-        <v>26</v>
-      </c>
-      <c r="X36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>1781</v>
       </c>
       <c r="P37" t="s">
         <v>313</v>
       </c>
-      <c r="Q37" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N38">
-        <v>1781</v>
+        <v>46</v>
       </c>
       <c r="P38" t="s">
         <v>313</v>
       </c>
+      <c r="U38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="K39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N39">
-        <v>46</v>
+        <v>623</v>
       </c>
       <c r="P39" t="s">
         <v>313</v>
       </c>
+      <c r="U39" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N40">
-        <v>623</v>
+        <v>48</v>
       </c>
       <c r="P40" t="s">
         <v>313</v>
       </c>
+      <c r="U40" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N41">
-        <v>48</v>
+        <v>1136</v>
       </c>
       <c r="P41" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>240</v>
+      <c r="A42" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" t="s">
+        <v>133</v>
+      </c>
       <c r="I42" t="s">
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="M42" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="N42">
-        <v>1136</v>
+        <v>20</v>
       </c>
       <c r="P42" t="s">
         <v>313</v>
       </c>
+      <c r="U42" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>241</v>
+      <c r="A43" t="s">
+        <v>301</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" t="s">
-        <v>133</v>
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
       </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
       <c r="K43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N43">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
         <v>313</v>
       </c>
+      <c r="Q43" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
-      <c r="J44" t="s">
-        <v>47</v>
-      </c>
       <c r="K44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M44" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N44">
-        <v>90</v>
+        <v>453</v>
       </c>
       <c r="P44" t="s">
         <v>313</v>
       </c>
-      <c r="Q44" t="s">
-        <v>26</v>
-      </c>
       <c r="U44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="H45" t="s">
-        <v>134</v>
-      </c>
+      <c r="H45" s="4"/>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="N45">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P45" t="s">
         <v>313</v>
@@ -3058,174 +3177,144 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M46" t="s">
         <v>52</v>
       </c>
       <c r="N46">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P46" t="s">
         <v>313</v>
       </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="I47" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="M47" t="s">
-        <v>52</v>
-      </c>
-      <c r="N47">
-        <v>465</v>
+        <v>42</v>
       </c>
       <c r="P47" t="s">
         <v>313</v>
       </c>
+      <c r="R47" t="s">
+        <v>26</v>
+      </c>
       <c r="U47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
         <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>185</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M48" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="N48">
+        <v>12</v>
       </c>
       <c r="P48" t="s">
         <v>313</v>
       </c>
-      <c r="R48" t="s">
+      <c r="Q48" t="s">
         <v>26</v>
       </c>
       <c r="U48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" t="s">
-        <v>185</v>
-      </c>
-      <c r="L49" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" t="s">
-        <v>41</v>
-      </c>
-      <c r="N49">
-        <v>12</v>
-      </c>
-      <c r="P49" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>26</v>
-      </c>
-      <c r="U49" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="rnaseq">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="rnaseq">
       <formula>NOT(ISERROR(SEARCH("rnaseq",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="dnaseq">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="dnaseq">
       <formula>NOT(ISERROR(SEARCH("dnaseq",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="bsseq">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="bsseq">
       <formula>NOT(ISERROR(SEARCH("bsseq",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="local">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="local">
       <formula>NOT(ISERROR(SEARCH("local",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3235,15 +3324,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84903EEC-E5C6-F645-9D34-7660EA8B36C9}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>247</v>
       </c>
@@ -3275,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>248</v>
       </c>
@@ -3304,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3333,7 +3422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -3362,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -3394,7 +3483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -3426,7 +3515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -3458,7 +3547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -3490,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -3522,7 +3611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>256</v>
       </c>
@@ -3554,7 +3643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -3586,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -3615,7 +3704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -3647,7 +3736,106 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>313</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="rnaseq" id="{931B855C-33D6-504F-9F55-E834876EA165}">
+            <xm:f>NOT(ISERROR(SEARCH("rnaseq",Sheet1!B15)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" text="dnaseq" id="{47619C45-D67F-0540-88A5-16EE8BC5689C}">
+            <xm:f>NOT(ISERROR(SEARCH("dnaseq",Sheet1!B15)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="8" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="bsseq" id="{A8C83AFB-9B05-2C4C-9274-B0738141DC8F}">
+            <xm:f>NOT(ISERROR(SEARCH("bsseq",Sheet1!B15)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="local" id="{38493873-F37A-0A49-B373-52D0FF4F99EC}">
+            <xm:f>NOT(ISERROR(SEARCH("local",Sheet1!D15)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFC00000"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/BF651E6B-1D39-415F-929B-4A3A117FAD8D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2F1FFCB3-0E59-4F67-9BF4-7C4CC1E7BAD9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43070765-F730-D34E-A06B-EF19B2D6389C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82548DE0-4297-E24F-9517-E38F1B86079C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="5360" windowWidth="22080" windowHeight="21160" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="20300" yWindow="1720" windowWidth="22080" windowHeight="21160" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="326">
   <si>
     <t>study</t>
   </si>
@@ -986,6 +986,24 @@
   </si>
   <si>
     <t>meta</t>
+  </si>
+  <si>
+    <t>rn17d</t>
+  </si>
+  <si>
+    <t>zhang2017</t>
+  </si>
+  <si>
+    <t>PRJNA343268</t>
+  </si>
+  <si>
+    <t>maize, sorghum</t>
+  </si>
+  <si>
+    <t>10d whole plant</t>
+  </si>
+  <si>
+    <t>cold stress</t>
   </si>
 </sst>
 </file>
@@ -1448,11 +1466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1598,7 @@
       <c r="P2" t="s">
         <v>314</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
       <c r="V2" t="s">
@@ -1618,7 +1636,7 @@
       <c r="P3" t="s">
         <v>314</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
         <v>26</v>
       </c>
       <c r="V3" t="s">
@@ -1656,7 +1674,7 @@
       <c r="P4" t="s">
         <v>314</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1691,7 +1709,7 @@
       <c r="P5" t="s">
         <v>314</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5" t="s">
         <v>26</v>
       </c>
       <c r="V5" t="s">
@@ -1723,7 +1741,7 @@
       <c r="P6" t="s">
         <v>314</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1758,7 +1776,7 @@
       <c r="P7" t="s">
         <v>314</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
       <c r="V7" t="s">
@@ -1790,7 +1808,7 @@
       <c r="P8" t="s">
         <v>314</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1825,7 +1843,7 @@
       <c r="P9" t="s">
         <v>314</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>26</v>
       </c>
       <c r="V9" t="s">
@@ -1860,7 +1878,7 @@
       <c r="P10" t="s">
         <v>314</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>26</v>
       </c>
       <c r="V10" t="s">
@@ -1895,7 +1913,7 @@
       <c r="P11" t="s">
         <v>315</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1927,7 +1945,7 @@
       <c r="P12" t="s">
         <v>315</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" t="s">
         <v>26</v>
       </c>
       <c r="W12" t="s">
@@ -1962,7 +1980,7 @@
       <c r="P13" t="s">
         <v>315</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2026,7 +2044,7 @@
       <c r="P15" t="s">
         <v>315</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15" t="s">
         <v>26</v>
       </c>
       <c r="W15" t="s">
@@ -2099,7 +2117,7 @@
       <c r="P17" t="s">
         <v>315</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2137,7 +2155,7 @@
       <c r="P18" t="s">
         <v>313</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2175,7 +2193,7 @@
       <c r="P19" t="s">
         <v>313</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2204,7 +2222,10 @@
       <c r="P20" t="s">
         <v>313</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2242,7 +2263,7 @@
       <c r="P21" t="s">
         <v>313</v>
       </c>
-      <c r="U21" t="s">
+      <c r="T21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2280,10 +2301,7 @@
       <c r="P22" t="s">
         <v>313</v>
       </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="T22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2321,7 +2339,7 @@
       <c r="P23" t="s">
         <v>313</v>
       </c>
-      <c r="U23" t="s">
+      <c r="T23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2359,7 +2377,7 @@
       <c r="P24" t="s">
         <v>313</v>
       </c>
-      <c r="U24" t="s">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2397,7 +2415,7 @@
       <c r="P25" t="s">
         <v>313</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2435,7 +2453,7 @@
       <c r="P26" t="s">
         <v>313</v>
       </c>
-      <c r="U26" t="s">
+      <c r="T26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2473,7 +2491,7 @@
       <c r="P27" t="s">
         <v>313</v>
       </c>
-      <c r="U27" t="s">
+      <c r="T27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2511,7 +2529,7 @@
       <c r="P28" t="s">
         <v>313</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2549,7 +2567,7 @@
       <c r="P29" t="s">
         <v>313</v>
       </c>
-      <c r="U29" t="s">
+      <c r="T29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2590,7 +2608,7 @@
       <c r="R30" t="s">
         <v>26</v>
       </c>
-      <c r="U30" t="s">
+      <c r="T30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2628,7 +2646,7 @@
       <c r="P31" t="s">
         <v>313</v>
       </c>
-      <c r="U31" t="s">
+      <c r="T31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2666,7 +2684,7 @@
       <c r="P32" t="s">
         <v>313</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2704,7 +2722,7 @@
       <c r="P33" t="s">
         <v>313</v>
       </c>
-      <c r="U33" t="s">
+      <c r="T33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2742,7 +2760,7 @@
       <c r="P34" t="s">
         <v>313</v>
       </c>
-      <c r="U34" t="s">
+      <c r="T34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2786,10 +2804,7 @@
       <c r="R35" t="s">
         <v>26</v>
       </c>
-      <c r="U35" t="s">
-        <v>26</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="T35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2833,471 +2848,512 @@
       <c r="R36" t="s">
         <v>26</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s">
-        <v>88</v>
-      </c>
-      <c r="N37">
-        <v>1781</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s">
         <v>313</v>
       </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N38">
-        <v>46</v>
+        <v>1781</v>
       </c>
       <c r="P38" t="s">
         <v>313</v>
       </c>
-      <c r="U38" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N39">
-        <v>623</v>
+        <v>46</v>
       </c>
       <c r="P39" t="s">
         <v>313</v>
       </c>
-      <c r="U39" t="s">
+      <c r="T39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
       <c r="K40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N40">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="P40" t="s">
         <v>313</v>
       </c>
-      <c r="U40" t="s">
+      <c r="T40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M41" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N41">
-        <v>1136</v>
+        <v>48</v>
       </c>
       <c r="P41" t="s">
         <v>313</v>
       </c>
+      <c r="T41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>241</v>
+      <c r="A42" t="s">
+        <v>240</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="H42" t="s">
-        <v>133</v>
-      </c>
+      <c r="H42" s="4"/>
       <c r="I42" t="s">
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M42" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="N42">
-        <v>20</v>
+        <v>1136</v>
       </c>
       <c r="P42" t="s">
         <v>313</v>
       </c>
-      <c r="U42" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>301</v>
+      <c r="A43" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>133</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
       </c>
-      <c r="J43" t="s">
-        <v>47</v>
-      </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N43">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P43" t="s">
         <v>313</v>
       </c>
-      <c r="Q43" t="s">
-        <v>26</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="T43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" t="s">
-        <v>134</v>
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="N44">
-        <v>453</v>
+        <v>90</v>
       </c>
       <c r="P44" t="s">
         <v>313</v>
       </c>
-      <c r="U44" t="s">
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N45">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P45" t="s">
         <v>313</v>
       </c>
+      <c r="T45" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H46" s="4"/>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M46" t="s">
         <v>52</v>
       </c>
       <c r="N46">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P46" t="s">
         <v>313</v>
       </c>
-      <c r="U46" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="M47" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="N47">
+        <v>465</v>
       </c>
       <c r="P47" t="s">
         <v>313</v>
       </c>
-      <c r="R47" t="s">
-        <v>26</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="T47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
         <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="L48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M48" t="s">
-        <v>41</v>
-      </c>
-      <c r="N48">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P48" t="s">
         <v>313</v>
       </c>
-      <c r="Q48" t="s">
-        <v>26</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>185</v>
+      </c>
+      <c r="L49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="P49" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/531A9A13-B8CD-4DA8-BB24-4BEA3107D70D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/0DFC0224-67D2-4D29-AE06-D4EE120FEFEC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0EE69-EE7D-0F43-B4A3-6A8AD6C284F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BCB1B-6973-3E43-B458-D479196893E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27080" yWindow="3840" windowWidth="22080" windowHeight="22100" activeTab="1" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="29120" yWindow="2320" windowWidth="22080" windowHeight="22100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="421">
   <si>
     <t>study</t>
   </si>
@@ -1287,6 +1287,9 @@
   </si>
   <si>
     <t>dapseq</t>
+  </si>
+  <si>
+    <t>star</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1831,9 +1834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2457,9 +2460,7 @@
       <c r="Q16" t="s">
         <v>309</v>
       </c>
-      <c r="U16" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="U16" s="6"/>
       <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2536,9 +2537,7 @@
       <c r="Q18" t="s">
         <v>309</v>
       </c>
-      <c r="U18" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="U18" s="6"/>
       <c r="W18" s="11" t="s">
         <v>26</v>
       </c>
@@ -2650,9 +2649,7 @@
         <v>26</v>
       </c>
       <c r="U21" s="6"/>
-      <c r="X21" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3086,7 +3083,7 @@
       </c>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -3125,7 +3122,7 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -3164,7 +3161,7 @@
       </c>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>228</v>
       </c>
@@ -3203,7 +3200,7 @@
       </c>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -3248,7 +3245,7 @@
       </c>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
@@ -3292,8 +3289,11 @@
         <v>26</v>
       </c>
       <c r="U37" s="6"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>314</v>
       </c>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>231</v>
       </c>
@@ -3366,11 +3366,9 @@
       <c r="Q39" t="s">
         <v>307</v>
       </c>
-      <c r="U39" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>232</v>
       </c>
@@ -3409,7 +3407,7 @@
       </c>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>233</v>
       </c>
@@ -3448,7 +3446,7 @@
       </c>
       <c r="U41" s="6"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -3487,7 +3485,7 @@
       </c>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -3521,7 +3519,7 @@
       </c>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>236</v>
       </c>
@@ -3560,7 +3558,7 @@
       </c>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -3608,7 +3606,7 @@
       </c>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -3647,7 +3645,7 @@
       </c>
       <c r="U46" s="6"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>323</v>
       </c>
@@ -3678,11 +3676,9 @@
       <c r="Q47" t="s">
         <v>307</v>
       </c>
-      <c r="U47" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>238</v>
       </c>
@@ -3714,9 +3710,7 @@
       <c r="Q48" t="s">
         <v>307</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="U48" s="6"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -3901,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84903EEC-E5C6-F645-9D34-7660EA8B36C9}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/0DFC0224-67D2-4D29-AE06-D4EE120FEFEC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/47D60CEA-8C83-4ABF-BDB3-0BC2F007D920/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BCB1B-6973-3E43-B458-D479196893E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068DAE50-3766-634F-B55A-766287EAB464}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29120" yWindow="2320" windowWidth="22080" windowHeight="22100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="19480" yWindow="7100" windowWidth="21860" windowHeight="21260" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="472">
   <si>
     <t>study</t>
   </si>
@@ -239,9 +239,6 @@
     <t>reproductive</t>
   </si>
   <si>
-    <t>B,M and RILs</t>
-  </si>
-  <si>
     <t>SAM</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>27 inbreds</t>
   </si>
   <si>
-    <t>B, M anf F1</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
     <t>leaf primordia</t>
   </si>
   <si>
-    <t>aleurone+endosperm</t>
-  </si>
-  <si>
     <t>solid</t>
   </si>
   <si>
@@ -977,9 +968,6 @@
     <t>zhang2017</t>
   </si>
   <si>
-    <t>PRJNA343268</t>
-  </si>
-  <si>
     <t>maize, sorghum</t>
   </si>
   <si>
@@ -1025,9 +1013,6 @@
     <t>Zm00001d002970</t>
   </si>
   <si>
-    <t>young tassel at the nine leaf stage</t>
-  </si>
-  <si>
     <t>PRJNA483310</t>
   </si>
   <si>
@@ -1290,13 +1275,181 @@
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>PRJNA343268 PRJNA344653</t>
+  </si>
+  <si>
+    <t>rn19c</t>
+  </si>
+  <si>
+    <t>yi2019</t>
+  </si>
+  <si>
+    <t>PRJNA505095</t>
+  </si>
+  <si>
+    <t>seed dev</t>
+  </si>
+  <si>
+    <t>cp16a</t>
+  </si>
+  <si>
+    <t>mnase</t>
+  </si>
+  <si>
+    <t>Rodgers-Melnick</t>
+  </si>
+  <si>
+    <t>PRJNA297204</t>
+  </si>
+  <si>
+    <t>root, shoot</t>
+  </si>
+  <si>
+    <t>bs13b</t>
+  </si>
+  <si>
+    <t>PRJNA170520</t>
+  </si>
+  <si>
+    <t>maize methylome</t>
+  </si>
+  <si>
+    <t>coleoptile</t>
+  </si>
+  <si>
+    <t>regulski2013</t>
+  </si>
+  <si>
+    <t>bs13c</t>
+  </si>
+  <si>
+    <t>zhang2013</t>
+  </si>
+  <si>
+    <t>SRP011991</t>
+  </si>
+  <si>
+    <t>methylation imprinting</t>
+  </si>
+  <si>
+    <t>B, M and F1</t>
+  </si>
+  <si>
+    <t>B, BxM, MxB</t>
+  </si>
+  <si>
+    <t>rn15b</t>
+  </si>
+  <si>
+    <t>chen2015</t>
+  </si>
+  <si>
+    <t>PRJNA272651</t>
+  </si>
+  <si>
+    <t>nitrogen response</t>
+  </si>
+  <si>
+    <t>Zheng58, Chang7-2</t>
+  </si>
+  <si>
+    <t>rn15c</t>
+  </si>
+  <si>
+    <t>PRJEB10574</t>
+  </si>
+  <si>
+    <t>Colletotrichum infection</t>
+  </si>
+  <si>
+    <t>B73, Golden Jubilee</t>
+  </si>
+  <si>
+    <t>rn15d</t>
+  </si>
+  <si>
+    <t>PRJEB9918</t>
+  </si>
+  <si>
+    <t>B73 x H99 RIL</t>
+  </si>
+  <si>
+    <t>PRJEB8086</t>
+  </si>
+  <si>
+    <t>MAGIC parents</t>
+  </si>
+  <si>
+    <t>8 inbreds</t>
+  </si>
+  <si>
+    <t>leaf_4</t>
+  </si>
+  <si>
+    <t>PRJEB11400</t>
+  </si>
+  <si>
+    <t>MAGIC RILs</t>
+  </si>
+  <si>
+    <t>rn15e</t>
+  </si>
+  <si>
+    <t>rn15f</t>
+  </si>
+  <si>
+    <t>leaf_3</t>
+  </si>
+  <si>
+    <t>PRJNA272385</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>5 magic inbreds</t>
+  </si>
+  <si>
+    <t>dn15b</t>
+  </si>
+  <si>
+    <t>young V9 tassel</t>
+  </si>
+  <si>
+    <t>aleurone, endosperm</t>
+  </si>
+  <si>
+    <t>baute2015</t>
+  </si>
+  <si>
+    <t>baute2016</t>
+  </si>
+  <si>
+    <t>dell-acqua2015</t>
+  </si>
+  <si>
+    <t>weihmann2016</t>
+  </si>
+  <si>
+    <t>magic5</t>
+  </si>
+  <si>
+    <t>94 RILs + 8 parents</t>
+  </si>
+  <si>
+    <t>104 RILs + 2 parents</t>
+  </si>
+  <si>
+    <t>105 RILs + 2 parents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1311,8 +1464,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,6 +1520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1383,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1397,6 +1562,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,11 +1999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomLeft" activeCell="X37" sqref="X37:X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1869,7 +2036,7 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1908,16 +2075,16 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
@@ -1926,24 +2093,24 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="X1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -1964,96 +2131,103 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="6"/>
-      <c r="V2" s="7"/>
+      <c r="V2" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>430</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>427</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
+      <c r="L3" t="s">
+        <v>428</v>
+      </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="Q3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T3" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>433</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
+      <c r="L4" t="s">
+        <v>434</v>
+      </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>436</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T4" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="6"/>
+      <c r="V4" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
@@ -2062,19 +2236,19 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T5" t="s">
         <v>26</v>
@@ -2084,13 +2258,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
@@ -2099,13 +2273,19 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
       <c r="Q6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T6" t="s">
         <v>26</v>
@@ -2114,13 +2294,13 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -2129,37 +2309,35 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T7" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
@@ -2168,13 +2346,13 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T8" t="s">
         <v>26</v>
@@ -2183,13 +2361,13 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -2198,35 +2376,35 @@
         <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T9" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -2235,142 +2413,142 @@
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
       <c r="Q10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T10" t="s">
         <v>26</v>
       </c>
       <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="O11" s="8">
-        <v>103</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="W11" s="9"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>305</v>
+      </c>
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>305</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O12">
-        <v>31</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>309</v>
-      </c>
-      <c r="T12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U12" s="6"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>309</v>
-      </c>
-      <c r="T13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="6"/>
+      <c r="J13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O13" s="8">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>380</v>
+      </c>
       <c r="D14" t="s">
         <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
         <v>263</v>
@@ -2378,351 +2556,348 @@
       <c r="J14" t="s">
         <v>5</v>
       </c>
-      <c r="L14" t="s">
-        <v>259</v>
-      </c>
-      <c r="M14" t="s">
-        <v>262</v>
+      <c r="L14" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="O14">
-        <v>845</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>309</v>
-      </c>
-      <c r="U14" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>258</v>
+      <c r="L15" t="s">
+        <v>459</v>
+      </c>
+      <c r="M15" t="s">
+        <v>460</v>
       </c>
       <c r="O15">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="s">
-        <v>309</v>
-      </c>
-      <c r="T15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="6"/>
-      <c r="W15" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="U15" s="14"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>271</v>
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O16">
-        <v>598</v>
+      <c r="M16" t="s">
+        <v>35</v>
       </c>
       <c r="Q16" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
       </c>
       <c r="U16" s="6"/>
-      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
-        <v>388</v>
-      </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>260</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>204</v>
+      <c r="L17" t="s">
+        <v>256</v>
       </c>
       <c r="M17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O17">
-        <v>60</v>
+        <v>845</v>
       </c>
       <c r="Q17" t="s">
-        <v>309</v>
-      </c>
-      <c r="T17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U17" s="6"/>
-      <c r="W17" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="D18" t="s">
+        <v>266</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="O18">
-        <v>521</v>
+        <v>277</v>
       </c>
       <c r="Q18" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
       </c>
       <c r="U18" s="6"/>
-      <c r="W18" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U19" s="9"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19">
+        <v>598</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>306</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
       </c>
-      <c r="L20" t="s">
-        <v>180</v>
+      <c r="L20" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="O20">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T20" t="s">
         <v>26</v>
       </c>
       <c r="U20" s="6"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O21">
+        <v>521</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>306</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="W21" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>297</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O21">
-        <v>13</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>307</v>
-      </c>
-      <c r="T21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21" s="6"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22">
-        <v>105</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>307</v>
-      </c>
-      <c r="T22" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22" s="6"/>
+      <c r="D22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s">
         <v>68</v>
       </c>
       <c r="N23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T23" t="s">
         <v>26</v>
@@ -2731,115 +2906,108 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="J24" t="s">
         <v>5</v>
       </c>
-      <c r="L24" t="s">
-        <v>183</v>
-      </c>
-      <c r="M24" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s">
-        <v>32</v>
+      <c r="L24" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="O24">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T24" t="s">
         <v>26</v>
       </c>
       <c r="U24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s">
-        <v>116</v>
-      </c>
       <c r="J25" t="s">
         <v>5</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="Q25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T25" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="6"/>
+      <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J26" t="s">
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O26">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T26" t="s">
         <v>26</v>
@@ -2848,37 +3016,37 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
         <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="O27">
-        <v>503</v>
+        <v>62</v>
       </c>
       <c r="Q27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T27" t="s">
         <v>26</v>
@@ -2887,37 +3055,37 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N28" t="s">
         <v>41</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T28" t="s">
         <v>26</v>
@@ -2926,37 +3094,37 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
         <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="Q29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T29" t="s">
         <v>26</v>
@@ -2965,37 +3133,37 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J30" t="s">
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O30">
-        <v>53</v>
+        <v>503</v>
       </c>
       <c r="Q30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T30" t="s">
         <v>26</v>
@@ -3003,41 +3171,38 @@
       <c r="U30" s="6"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>299</v>
+      <c r="A31" t="s">
+        <v>219</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="N31" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="O31">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
-        <v>307</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="T31" t="s">
         <v>26</v>
@@ -3046,37 +3211,37 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
         <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="N32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O32">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="Q32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T32" t="s">
         <v>26</v>
@@ -3085,37 +3250,37 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M33" t="s">
         <v>68</v>
       </c>
       <c r="N33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O33">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="Q33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T33" t="s">
         <v>26</v>
@@ -3123,77 +3288,81 @@
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>227</v>
+      <c r="A34" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="O34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q34" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="S34" t="s">
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>26</v>
       </c>
       <c r="U34" s="6"/>
+      <c r="X34" s="6"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
         <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="O35">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T35" t="s">
         <v>26</v>
@@ -3202,244 +3371,243 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>437</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>449</v>
       </c>
       <c r="J36" t="s">
         <v>5</v>
       </c>
       <c r="L36" t="s">
-        <v>193</v>
+        <v>450</v>
       </c>
       <c r="M36" t="s">
-        <v>31</v>
+        <v>451</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="O36">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="s">
-        <v>307</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="T36" t="s">
         <v>26</v>
       </c>
       <c r="U36" s="6"/>
+      <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="D37" t="s">
-        <v>162</v>
+      <c r="D37" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="J37" t="s">
         <v>5</v>
       </c>
       <c r="L37" t="s">
-        <v>194</v>
+        <v>454</v>
       </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>469</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="Q37" t="s">
-        <v>420</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="T37" t="s">
         <v>26</v>
       </c>
       <c r="U37" s="6"/>
-      <c r="X37" t="s">
-        <v>26</v>
-      </c>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>446</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="J38" t="s">
         <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="M38" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>452</v>
+      </c>
+      <c r="O38">
+        <v>106</v>
       </c>
       <c r="Q38" t="s">
-        <v>307</v>
-      </c>
-      <c r="S38" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="T38" t="s">
         <v>26</v>
       </c>
       <c r="U38" s="6"/>
+      <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>443</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="L39" t="s">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="M39" t="s">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="N39" t="s">
-        <v>87</v>
+        <v>457</v>
       </c>
       <c r="O39">
-        <v>1781</v>
+        <v>8</v>
       </c>
       <c r="Q39" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="S39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" t="s">
+        <v>26</v>
       </c>
       <c r="U39" s="6"/>
+      <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>456</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>438</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>129</v>
+        <v>439</v>
       </c>
       <c r="J40" t="s">
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>196</v>
+        <v>440</v>
       </c>
       <c r="M40" t="s">
-        <v>88</v>
+        <v>441</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O40">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="S40" t="s">
+        <v>26</v>
       </c>
       <c r="T40" t="s">
         <v>26</v>
       </c>
       <c r="U40" s="6"/>
+      <c r="X40" s="6"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J41" t="s">
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O41">
-        <v>623</v>
+        <v>93</v>
       </c>
       <c r="Q41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T41" t="s">
         <v>26</v>
@@ -3448,37 +3616,37 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J42" t="s">
         <v>5</v>
       </c>
       <c r="L42" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M42" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="N42" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="O42">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="Q42" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T42" t="s">
         <v>26</v>
@@ -3487,118 +3655,127 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
       <c r="J43" t="s">
         <v>5</v>
       </c>
       <c r="L43" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="O43">
-        <v>1136</v>
+        <v>133</v>
       </c>
       <c r="Q43" t="s">
-        <v>307</v>
-      </c>
-      <c r="U43" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="T43" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>236</v>
+      <c r="A44" t="s">
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" t="s">
-        <v>132</v>
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
       </c>
       <c r="J44" t="s">
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q44" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="S44" t="s">
+        <v>26</v>
       </c>
       <c r="T44" t="s">
         <v>26</v>
       </c>
       <c r="U44" s="6"/>
+      <c r="X44" s="6"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="I45" t="s">
+        <v>124</v>
       </c>
       <c r="J45" t="s">
         <v>5</v>
       </c>
-      <c r="K45" t="s">
-        <v>47</v>
-      </c>
       <c r="L45" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M45" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
       <c r="N45" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O45">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="Q45" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="R45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" t="s">
         <v>26</v>
       </c>
       <c r="T45" t="s">
@@ -3608,266 +3785,660 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
         <v>5</v>
       </c>
       <c r="L46" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="O46">
-        <v>453</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
       </c>
       <c r="T46" t="s">
         <v>26</v>
       </c>
       <c r="U46" s="6"/>
+      <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
       </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c r="O47">
-        <v>7</v>
+        <v>1781</v>
       </c>
       <c r="Q47" t="s">
-        <v>307</v>
-      </c>
-      <c r="U47" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="T47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" s="6"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
       <c r="J48" t="s">
         <v>5</v>
       </c>
       <c r="L48" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M48" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O48">
-        <v>460</v>
+        <v>46</v>
       </c>
       <c r="Q48" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="T48" t="s">
+        <v>26</v>
       </c>
       <c r="U48" s="6"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>127</v>
       </c>
       <c r="J49" t="s">
         <v>5</v>
       </c>
       <c r="L49" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M49" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N49" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="O49">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="Q49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T49" t="s">
         <v>26</v>
       </c>
       <c r="U49" s="6"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>240</v>
+        <v>107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>128</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="L50" t="s">
+        <v>195</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="N50" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="O50">
+        <v>48</v>
       </c>
       <c r="Q50" t="s">
-        <v>307</v>
-      </c>
-      <c r="S50" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="T50" t="s">
         <v>26</v>
       </c>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" t="s">
+        <v>196</v>
+      </c>
+      <c r="M51" t="s">
+        <v>91</v>
+      </c>
+      <c r="N51" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51">
+        <v>1136</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>304</v>
+      </c>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>304</v>
+      </c>
+      <c r="T52" t="s">
+        <v>26</v>
+      </c>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" t="s">
+        <v>200</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53">
+        <v>90</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>304</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>198</v>
+      </c>
+      <c r="M54" t="s">
+        <v>93</v>
+      </c>
+      <c r="N54" t="s">
+        <v>94</v>
+      </c>
+      <c r="O54">
+        <v>453</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>304</v>
+      </c>
+      <c r="T54" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" t="s">
+        <v>320</v>
+      </c>
+      <c r="J55" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>321</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>304</v>
+      </c>
+      <c r="U55" s="12"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" t="s">
+        <v>419</v>
+      </c>
+      <c r="J56" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="s">
+        <v>68</v>
+      </c>
+      <c r="N56" t="s">
+        <v>79</v>
+      </c>
+      <c r="O56">
+        <v>31</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>304</v>
+      </c>
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>199</v>
+      </c>
+      <c r="M57" t="s">
+        <v>95</v>
+      </c>
+      <c r="N57" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57">
+        <v>460</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>304</v>
+      </c>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>201</v>
+      </c>
+      <c r="M58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58">
+        <v>465</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>304</v>
+      </c>
+      <c r="T58" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s">
+        <v>237</v>
+      </c>
+      <c r="J59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>304</v>
+      </c>
+      <c r="S59" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="6"/>
+      <c r="X59" s="6"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
         <v>56</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E60" t="s">
         <v>63</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F60" t="s">
         <v>53</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G60" t="s">
         <v>39</v>
       </c>
-      <c r="J51" t="s">
-        <v>5</v>
-      </c>
-      <c r="L51" t="s">
-        <v>184</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="J60" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" t="s">
+        <v>181</v>
+      </c>
+      <c r="M60" t="s">
         <v>40</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N60" t="s">
         <v>41</v>
       </c>
-      <c r="O51">
+      <c r="O60">
         <v>12</v>
       </c>
-      <c r="Q51" t="s">
-        <v>307</v>
-      </c>
-      <c r="R51" t="s">
-        <v>26</v>
-      </c>
-      <c r="T51" t="s">
-        <v>26</v>
-      </c>
-      <c r="U51" s="6"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>379</v>
-      </c>
-      <c r="B52" t="s">
-        <v>380</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J52" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="Q60" t="s">
+        <v>304</v>
+      </c>
+      <c r="R60" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>421</v>
+      </c>
+      <c r="B61" t="s">
+        <v>422</v>
+      </c>
+      <c r="D61" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" t="s">
         <v>68</v>
       </c>
-      <c r="N52" t="s">
-        <v>381</v>
-      </c>
-      <c r="O52">
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61">
         <v>4</v>
       </c>
-      <c r="Q52" t="s">
-        <v>309</v>
+      <c r="Q61" t="s">
+        <v>306</v>
+      </c>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N62" t="s">
+        <v>376</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3888,6 +4459,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3969,19 +4541,19 @@
         <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
@@ -3990,56 +4562,56 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="X1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4174,13 +4746,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -4192,19 +4764,19 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U1" t="s">
         <v>24</v>
@@ -4213,42 +4785,42 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Y1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M2" t="s">
         <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -4256,28 +4828,28 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M3" t="s">
         <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -4285,25 +4857,25 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
         <v>41</v>
@@ -4314,25 +4886,25 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -4340,28 +4912,28 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M6" t="s">
         <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -4369,31 +4941,31 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
         <v>68</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>27</v>
@@ -4401,31 +4973,31 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M8" t="s">
         <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -4433,25 +5005,25 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M9" t="s">
         <v>68</v>
@@ -4465,28 +5037,28 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -4497,31 +5069,31 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O11">
         <v>6</v>
@@ -4529,25 +5101,25 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
         <v>68</v>
@@ -4561,31 +5133,31 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L13" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -4593,28 +5165,28 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O14">
         <v>24</v>
@@ -4622,31 +5194,31 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M15" t="s">
         <v>68</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>463</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -4654,25 +5226,25 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N16" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="O16">
         <v>6</v>
@@ -4680,25 +5252,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -4706,28 +5278,28 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" t="s">
         <v>395</v>
       </c>
-      <c r="H18" t="s">
-        <v>400</v>
-      </c>
       <c r="I18" t="s">
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -4735,28 +5307,28 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C19" t="s">
+        <v>390</v>
+      </c>
+      <c r="H19" t="s">
         <v>395</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" t="s">
         <v>400</v>
       </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>407</v>
-      </c>
-      <c r="K19" t="s">
-        <v>405</v>
-      </c>
       <c r="L19" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O19">
         <v>10</v>
@@ -4764,28 +5336,28 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C20" t="s">
+        <v>390</v>
+      </c>
+      <c r="H20" t="s">
         <v>395</v>
       </c>
-      <c r="H20" t="s">
-        <v>400</v>
-      </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O20">
         <v>10</v>
@@ -4793,28 +5365,28 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L21" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O21">
         <v>6</v>
@@ -4822,28 +5394,28 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H22" t="s">
+        <v>406</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
         <v>411</v>
       </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>416</v>
-      </c>
       <c r="K22" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L22" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O22">
         <v>6</v>
